--- a/OtherModule/data-analytics-project-for-beginners/DAX Measures and Calculated columns.xlsx
+++ b/OtherModule/data-analytics-project-for-beginners/DAX Measures and Calculated columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b04afb9e78d0319/Youtube/DataAnalyticsForEveryone/3_t20_cricket_analytics/Downloadables for Learners/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\PycharmProjects\data_analysis\OtherModule\data-analytics-project-for-beginners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_1D3F786490B13926655E9B47B092A01ABA947AB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F0D26F-BA6F-4373-9FD8-64176FB94D9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62C7869-BF06-4379-8702-448FC934EBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,43 +183,95 @@
     <t>Batting position of a player</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">Batting Position = </t>
+    <t>Boundary %</t>
+  </si>
+  <si>
+    <t>Percentage of boundaries scored by the Batsman</t>
+  </si>
+  <si>
+    <t>Avg. Balls Faced</t>
+  </si>
+  <si>
+    <t>Average balls faced by the batter in an innings</t>
+  </si>
+  <si>
+    <t>Wickets</t>
+  </si>
+  <si>
+    <t>Total number of wickets taken by a bowler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wickets = </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF3165BB"/>
         <rFont val="Consolas"/>
-      </rPr>
-      <t>ROUNDUP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fact_bowling_summary[wickets]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>fact_bowling_summary</t>
+  </si>
+  <si>
+    <t>Total number of balls bowled by the bowler</t>
+  </si>
+  <si>
+    <t>Runs Conceded</t>
+  </si>
+  <si>
+    <t>Total runs conceded by the bowler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Runs Conceded = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FF3165BB"/>
         <rFont val="Consolas"/>
-      </rPr>
-      <t>AVERAGE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
@@ -228,22 +280,102 @@
         <sz val="9"/>
         <color rgb="FF001080"/>
         <rFont val="Consolas"/>
-      </rPr>
-      <t>fact_batting_summary[batting_pos]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>),</t>
+        <family val="3"/>
+      </rPr>
+      <t>fact_bowling_summary[runs]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bowling Economy</t>
+  </si>
+  <si>
+    <t>Average number of runs conceded in an over</t>
+  </si>
+  <si>
+    <t>Bowling Strike Rate</t>
+  </si>
+  <si>
+    <t>Number of balls bowled per wicket</t>
+  </si>
+  <si>
+    <t>Bowling Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of runs allowed per wicket  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bowling Average = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DIVIDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[Runs Conceded]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[wickets]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF09885A"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>0</t>
     </r>
@@ -252,355 +384,59 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Boundary %</t>
-  </si>
-  <si>
-    <t>Percentage of boundaries scored by the Batsman</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">Boundary % =  </t>
+    <t>Total Innings Bowled</t>
+  </si>
+  <si>
+    <t>Total number of innings bowled by a bowler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total Innings Bowled = </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF3165BB"/>
         <rFont val="Consolas"/>
-      </rPr>
-      <t>DIVIDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DISTINCTCOUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
         <color rgb="FF001080"/>
         <rFont val="Consolas"/>
-      </rPr>
-      <t>fact_batting_summary[Boundary runs]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>[Total Runs]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fact_bowling_summary[match_id]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Avg. Balls Faced</t>
-  </si>
-  <si>
-    <t>Average balls faced by the batter in an innings</t>
-  </si>
-  <si>
-    <t>Wickets</t>
-  </si>
-  <si>
-    <t>Total number of wickets taken by a bowler</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wickets = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>fact_bowling_summary[wickets]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>fact_bowling_summary</t>
-  </si>
-  <si>
-    <t>Total number of balls bowled by the bowler</t>
-  </si>
-  <si>
-    <t>Runs Conceded</t>
-  </si>
-  <si>
-    <t>Total runs conceded by the bowler</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Runs Conceded = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>fact_bowling_summary[runs]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bowling Economy</t>
-  </si>
-  <si>
-    <t>Average number of runs conceded in an over</t>
-  </si>
-  <si>
-    <t>Bowling Strike Rate</t>
-  </si>
-  <si>
-    <t>Number of balls bowled per wicket</t>
-  </si>
-  <si>
-    <t>Bowling Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of runs allowed per wicket  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bowling Average = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DIVIDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[Runs Conceded]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[wickets]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Total Innings Bowled</t>
-  </si>
-  <si>
-    <t>Total number of innings bowled by a bowler</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total Innings Bowled = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DISTINCTCOUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>fact_bowling_summary[match_id]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Dot Ball %</t>
   </si>
   <si>
@@ -611,101 +447,6 @@
   </si>
   <si>
     <t>To understand if a player is selected or not</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Player Selection = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ISFILTERED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>dim_player[name]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"0"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Display Text</t>
@@ -849,89 +590,348 @@
     <t>to find the total number of runs conceded by bowlers in boundaries</t>
   </si>
   <si>
-    <t>Boundary runs = fact_bowling_summary[fours]*4 +fact_bowling_summary[Sixes]*6</t>
-  </si>
-  <si>
     <t>Custom Batting Order</t>
   </si>
   <si>
     <t>To assign the batting order to potential final 11</t>
   </si>
   <si>
-    <t>SWITCH(
+    <t>dim_player</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Innings Batted</t>
+  </si>
+  <si>
+    <t>Batting position</t>
+  </si>
+  <si>
+    <t>Innings Bowled</t>
+  </si>
+  <si>
+    <t>Bowling Strike Ra</t>
+  </si>
+  <si>
+    <t>Bowling Style</t>
+  </si>
+  <si>
+    <t>Dot ball %</t>
+  </si>
+  <si>
+    <t>Total balls Faced</t>
+  </si>
+  <si>
+    <t>total balls faced = SUM(fact_batting_summary[balls])</t>
+  </si>
+  <si>
+    <t>Strike rate = DIVIDE([Total Runs],[total balls faced],0)*100</t>
+  </si>
+  <si>
+    <t>Avg. balls Faced</t>
+  </si>
+  <si>
+    <t>balls Bowled</t>
+  </si>
+  <si>
+    <t>balls Bowled = SUM(fact_bowling_summary[balls])</t>
+  </si>
+  <si>
+    <t>Economy = DIVIDE( [Runs Conceded], ([balls Bowled]/6),0)</t>
+  </si>
+  <si>
+    <t>Bowling Strike Rate = DIVIDE([balls Bowled], [wickets],0)</t>
+  </si>
+  <si>
+    <t>Dot ball % = DIVIDE(SUM(fact_bowling_summary[zeros]), SUM(fact_bowling_summary[balls]),0)</t>
+  </si>
+  <si>
+    <t>Total Innings Dismissed = SUM(fact_batting_summary[out])</t>
+  </si>
+  <si>
+    <t>Avg. balls Faced = AVERAGE(fact_batting_summary[balls])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player Selection = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ISFILTERED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dim_players[name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">Batting Position = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>ROUNDUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>AVERAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>fact_batting_summary[battingPos]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">Boundary % =  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>DIVIDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>fact_batting_summary[runs]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>[Total Runs]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>boundary runs = fact_bowling_summary[fours]*4 +fact_bowling_summary[Sixes]*6</t>
+  </si>
+  <si>
+    <t>custom batting order = SWITCH(
     TRUE(),
-dim_player[name] = "Jos Buttler",1,
-dim_player[name] = "Rilee Rossouw",2,
-dim_player[name] = "Alex Hales",2,
-dim_player[name]  = "Virat Kohli",3,
-dim_player[name] = "Suryakumar Yadav" ,4,
-dim_player[name] = "Glenn Phillips" ,5,
-dim_player[name] = "Marcus Stoinis" ,6,
-dim_player[name] = "Glenn Maxwell" ,6,
-dim_player[name] = "Sikandar Raza" ,7,
-dim_player[name] = "Rashid Khan" ,8,
-dim_player[name] = "Shadab Khan" ,8,
-dim_player[name] = "Sam Curran" ,9,
-dim_player[name] = "Shaheen Shah Afridi" ,10,
-dim_player[name] = "Anrich Nortje" ,11
+dim_players[name] = "Jos Buttler",1,
+dim_players[name] = "Rilee Rossouw",2,
+dim_players[name] = "Alex Hales",2,
+dim_players[name]  = "Virat Kohli",3,
+dim_players[name] = "Suryakumar Yadav" ,4,
+dim_players[name] = "Glenn Phillips" ,5,
+dim_players[name] = "Marcus Stoinis" ,6,
+dim_players[name] = "Glenn Maxwell" ,6,
+dim_players[name] = "Sikandar Raza" ,7,
+dim_players[name] = "Rashid Khan" ,8,
+dim_players[name] = "Shadab Khan" ,8,
+dim_players[name] = "Sam Curran" ,9,
+dim_players[name] = "Shaheen Shah Afridi" ,10,
+dim_players[name] = "Anrich Nortje" ,11
 )</t>
-  </si>
-  <si>
-    <t>dim_player</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>Innings Batted</t>
-  </si>
-  <si>
-    <t>Batting position</t>
-  </si>
-  <si>
-    <t>Innings Bowled</t>
-  </si>
-  <si>
-    <t>Bowling Strike Ra</t>
-  </si>
-  <si>
-    <t>Bowling Style</t>
-  </si>
-  <si>
-    <t>Dot ball %</t>
-  </si>
-  <si>
-    <t>SUM(fact_batting_summary[out])</t>
-  </si>
-  <si>
-    <t>Total balls Faced</t>
-  </si>
-  <si>
-    <t>total balls faced = SUM(fact_batting_summary[balls])</t>
-  </si>
-  <si>
-    <t>Strike rate = DIVIDE([Total Runs],[total balls faced],0)*100</t>
-  </si>
-  <si>
-    <t>Avg. balls Faced</t>
-  </si>
-  <si>
-    <t>AVERAGE(fact_batting_summary[balls])</t>
-  </si>
-  <si>
-    <t>balls Bowled</t>
-  </si>
-  <si>
-    <t>balls Bowled = SUM(fact_bowling_summary[balls])</t>
-  </si>
-  <si>
-    <t>Economy = DIVIDE( [Runs Conceded], ([balls Bowled]/6),0)</t>
-  </si>
-  <si>
-    <t>Bowling Strike Rate = DIVIDE([balls Bowled], [wickets],0)</t>
-  </si>
-  <si>
-    <t>Dot ball % = DIVIDE(SUM(fact_bowling_summary[zeros]), SUM(fact_bowling_summary[balls]),0)</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1612,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1657,7 +1657,7 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1692,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -1722,24 +1722,24 @@
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="24.75">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.75">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>9</v>
@@ -1773,8 +1773,8 @@
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
+      <c r="D11" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -1785,27 +1785,27 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
+      <c r="D12" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>85</v>
@@ -1826,16 +1826,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1860,50 +1860,50 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="27.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27.75">
@@ -1911,16 +1911,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1935,33 +1935,33 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="39.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="5">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1976,13 +1976,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -1991,13 +1991,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -2006,36 +2006,36 @@
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30">
@@ -2043,13 +2043,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>9</v>
@@ -2060,16 +2060,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="288" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2114,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2129,47 +2129,47 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2181,14 +2181,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2369,12 +2367,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2386,12 +2386,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EB11DF-F67F-42EF-AD20-E41C7012AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247CC58C-AACA-4100-8933-A6117408EF33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94"/>
-    <ds:schemaRef ds:uri="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2416,9 +2413,12 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247CC58C-AACA-4100-8933-A6117408EF33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EB11DF-F67F-42EF-AD20-E41C7012AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94"/>
+    <ds:schemaRef ds:uri="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OtherModule/data-analytics-project-for-beginners/DAX Measures and Calculated columns.xlsx
+++ b/OtherModule/data-analytics-project-for-beginners/DAX Measures and Calculated columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\PycharmProjects\data_analysis\OtherModule\data-analytics-project-for-beginners\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b04afb9e78d0319/Youtube/DataAnalyticsForEveryone/3_t20_cricket_analytics/Downloadables for Learners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62C7869-BF06-4379-8702-448FC934EBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_1D3F786490B13926655E9B47B092A01ABA947AB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F0D26F-BA6F-4373-9FD8-64176FB94D9D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,12 +183,176 @@
     <t>Batting position of a player</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">Batting Position = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>ROUNDUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>AVERAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>fact_batting_summary[batting_pos]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>Boundary %</t>
   </si>
   <si>
     <t>Percentage of boundaries scored by the Batsman</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">Boundary % =  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>DIVIDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>fact_batting_summary[Boundary runs]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>[Total Runs]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>Avg. Balls Faced</t>
   </si>
   <si>
@@ -447,6 +611,101 @@
   </si>
   <si>
     <t>To understand if a player is selected or not</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player Selection = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ISFILTERED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dim_player[name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Display Text</t>
@@ -590,12 +849,34 @@
     <t>to find the total number of runs conceded by bowlers in boundaries</t>
   </si>
   <si>
+    <t>Boundary runs = fact_bowling_summary[fours]*4 +fact_bowling_summary[Sixes]*6</t>
+  </si>
+  <si>
     <t>Custom Batting Order</t>
   </si>
   <si>
     <t>To assign the batting order to potential final 11</t>
   </si>
   <si>
+    <t>SWITCH(
+    TRUE(),
+dim_player[name] = "Jos Buttler",1,
+dim_player[name] = "Rilee Rossouw",2,
+dim_player[name] = "Alex Hales",2,
+dim_player[name]  = "Virat Kohli",3,
+dim_player[name] = "Suryakumar Yadav" ,4,
+dim_player[name] = "Glenn Phillips" ,5,
+dim_player[name] = "Marcus Stoinis" ,6,
+dim_player[name] = "Glenn Maxwell" ,6,
+dim_player[name] = "Sikandar Raza" ,7,
+dim_player[name] = "Rashid Khan" ,8,
+dim_player[name] = "Shadab Khan" ,8,
+dim_player[name] = "Sam Curran" ,9,
+dim_player[name] = "Shaheen Shah Afridi" ,10,
+dim_player[name] = "Anrich Nortje" ,11
+)</t>
+  </si>
+  <si>
     <t>dim_player</t>
   </si>
   <si>
@@ -620,6 +901,9 @@
     <t>Dot ball %</t>
   </si>
   <si>
+    <t>SUM(fact_batting_summary[out])</t>
+  </si>
+  <si>
     <t>Total balls Faced</t>
   </si>
   <si>
@@ -632,6 +916,9 @@
     <t>Avg. balls Faced</t>
   </si>
   <si>
+    <t>AVERAGE(fact_batting_summary[balls])</t>
+  </si>
+  <si>
     <t>balls Bowled</t>
   </si>
   <si>
@@ -645,293 +932,6 @@
   </si>
   <si>
     <t>Dot ball % = DIVIDE(SUM(fact_bowling_summary[zeros]), SUM(fact_bowling_summary[balls]),0)</t>
-  </si>
-  <si>
-    <t>Total Innings Dismissed = SUM(fact_batting_summary[out])</t>
-  </si>
-  <si>
-    <t>Avg. balls Faced = AVERAGE(fact_batting_summary[balls])</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Player Selection = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ISFILTERED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>dim_players[name]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"0"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">Batting Position = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>ROUNDUP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>AVERAGE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>fact_batting_summary[battingPos]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">Boundary % =  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>DIVIDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>fact_batting_summary[runs]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>[Total Runs]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>boundary runs = fact_bowling_summary[fours]*4 +fact_bowling_summary[Sixes]*6</t>
-  </si>
-  <si>
-    <t>custom batting order = SWITCH(
-    TRUE(),
-dim_players[name] = "Jos Buttler",1,
-dim_players[name] = "Rilee Rossouw",2,
-dim_players[name] = "Alex Hales",2,
-dim_players[name]  = "Virat Kohli",3,
-dim_players[name] = "Suryakumar Yadav" ,4,
-dim_players[name] = "Glenn Phillips" ,5,
-dim_players[name] = "Marcus Stoinis" ,6,
-dim_players[name] = "Glenn Maxwell" ,6,
-dim_players[name] = "Sikandar Raza" ,7,
-dim_players[name] = "Rashid Khan" ,8,
-dim_players[name] = "Shadab Khan" ,8,
-dim_players[name] = "Sam Curran" ,9,
-dim_players[name] = "Shaheen Shah Afridi" ,10,
-dim_players[name] = "Anrich Nortje" ,11
-)</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1612,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1657,7 +1657,7 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1692,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -1722,24 +1722,24 @@
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="24.75">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="27.75">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>9</v>
@@ -1773,8 +1773,8 @@
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>87</v>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -1785,27 +1785,27 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>85</v>
@@ -1826,16 +1826,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1860,50 +1860,50 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
+    </row>
+    <row r="18" spans="1:5" ht="27.75">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.75">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27.75">
@@ -1911,16 +1911,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1935,33 +1935,33 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39.75">
       <c r="A23" s="5">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1976,13 +1976,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -1991,13 +1991,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -2006,36 +2006,36 @@
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30">
@@ -2043,13 +2043,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>9</v>
@@ -2060,16 +2060,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="288" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2114,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2129,47 +2129,47 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2181,12 +2181,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2367,14 +2369,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2386,9 +2386,12 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247CC58C-AACA-4100-8933-A6117408EF33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EB11DF-F67F-42EF-AD20-E41C7012AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94"/>
+    <ds:schemaRef ds:uri="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2413,12 +2416,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EB11DF-F67F-42EF-AD20-E41C7012AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247CC58C-AACA-4100-8933-A6117408EF33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b8a4b99c-9b0e-4f59-aa2a-8b6a3de16c94"/>
-    <ds:schemaRef ds:uri="eb6d4c3c-27e6-40f7-a5be-c2d429b5cb83"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>